--- a/mypjt/dataFiles/JPY.xlsx
+++ b/mypjt/dataFiles/JPY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>货币名称</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>0.5386</t>
+  </si>
+  <si>
+    <t>0.0592</t>
+  </si>
+  <si>
+    <t>2018-03-27 13:33:00</t>
+  </si>
+  <si>
+    <t>0.0066</t>
+  </si>
+  <si>
+    <t>0.5358</t>
+  </si>
+  <si>
+    <t>2018-03-27 13:40:00</t>
+  </si>
+  <si>
+    <t>0.5357</t>
+  </si>
+  <si>
+    <t>2018-03-27 13:41:00</t>
   </si>
 </sst>
 </file>
@@ -397,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +490,171 @@
       </c>
       <c r="C6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -482,7 +668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +690,30 @@
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +749,30 @@
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,6 +808,30 @@
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +867,30 @@
       </c>
       <c r="B2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,6 +928,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/mypjt/dataFiles/JPY.xlsx
+++ b/mypjt/dataFiles/JPY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>货币名称</t>
   </si>
@@ -34,10 +34,10 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>0.0596</t>
-  </si>
-  <si>
-    <t>2018-03-26 22:11:00</t>
+    <t>0.0590</t>
+  </si>
+  <si>
+    <t>2018-03-27 14:48:00</t>
   </si>
   <si>
     <t>USD</t>
@@ -49,7 +49,7 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>0.0067</t>
+    <t>0.0066</t>
   </si>
   <si>
     <t>EUR</t>
@@ -61,28 +61,7 @@
     <t>RUB</t>
   </si>
   <si>
-    <t>0.5386</t>
-  </si>
-  <si>
-    <t>0.0592</t>
-  </si>
-  <si>
-    <t>2018-03-27 13:33:00</t>
-  </si>
-  <si>
-    <t>0.0066</t>
-  </si>
-  <si>
-    <t>0.5358</t>
-  </si>
-  <si>
-    <t>2018-03-27 13:40:00</t>
-  </si>
-  <si>
-    <t>0.5357</t>
-  </si>
-  <si>
-    <t>2018-03-27 13:41:00</t>
+    <t>0.5355</t>
   </si>
 </sst>
 </file>
@@ -418,7 +397,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,171 +471,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -668,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,30 +506,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -727,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,30 +541,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -786,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,30 +576,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -845,7 +587,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,30 +611,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -904,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,30 +646,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
